--- a/Results/Eye_Score_tweedie_gam_Results.xlsx
+++ b/Results/Eye_Score_tweedie_gam_Results.xlsx
@@ -1,16 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="11012"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jesse/Documents/GitHub/Temperature-and-Immunity-2022/Results/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0ECC9752-5BC1-4B47-BD39-1CC3AD59EDDF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="500" windowWidth="16100" windowHeight="9660" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
   </bookViews>
   <sheets>
     <sheet name="tweedie_param" sheetId="1" r:id="rId1"/>
@@ -18,117 +12,13 @@
     <sheet name="tweedie_fit" sheetId="3" r:id="rId3"/>
     <sheet name="tweedie_compare" sheetId="4" r:id="rId4"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="33">
-  <si>
-    <t>model</t>
-  </si>
-  <si>
-    <t>term</t>
-  </si>
-  <si>
-    <t>estimate</t>
-  </si>
-  <si>
-    <t>std_error</t>
-  </si>
-  <si>
-    <t>statistic</t>
-  </si>
-  <si>
-    <t>p_value</t>
-  </si>
-  <si>
-    <t>Tweedie_GAM</t>
-  </si>
-  <si>
-    <t>(Intercept)</t>
-  </si>
-  <si>
-    <t>tempWarm</t>
-  </si>
-  <si>
-    <t>smooth</t>
-  </si>
-  <si>
-    <t>edf</t>
-  </si>
-  <si>
-    <t>ref_df</t>
-  </si>
-  <si>
-    <t>stat</t>
-  </si>
-  <si>
-    <t>s(dpi):tempCold</t>
-  </si>
-  <si>
-    <t>s(dpi):tempWarm</t>
-  </si>
-  <si>
-    <t>s(band_number)</t>
-  </si>
-  <si>
-    <t>family</t>
-  </si>
-  <si>
-    <t>link</t>
-  </si>
-  <si>
-    <t>AIC</t>
-  </si>
-  <si>
-    <t>dev_expl_frac</t>
-  </si>
-  <si>
-    <t>dev_expl_pct</t>
-  </si>
-  <si>
-    <t>r2_adj</t>
-  </si>
-  <si>
-    <t>scale_est</t>
-  </si>
-  <si>
-    <t>n</t>
-  </si>
-  <si>
-    <t>Tweedie(p=1.01)</t>
-  </si>
-  <si>
-    <t>log</t>
-  </si>
-  <si>
-    <t>Resid. Df</t>
-  </si>
-  <si>
-    <t>Resid. Dev</t>
-  </si>
-  <si>
-    <t>Df</t>
-  </si>
-  <si>
-    <t>Deviance</t>
-  </si>
-  <si>
-    <t>Pr(&gt;Chi)</t>
-  </si>
-  <si>
-    <t>comparison</t>
-  </si>
-  <si>
-    <t>Tweedie: null vs temp-specific</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -176,21 +66,13 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
-    <a:clrScheme name="Office 2007 - 2010">
+    <a:clrScheme name="Office">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -228,7 +110,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office 2007 - 2010">
+    <a:fontScheme name="Office">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -262,7 +144,6 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -297,10 +178,9 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
-        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office 2007 - 2010">
+    <a:fmtScheme name="Office">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -473,75 +353,91 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="9.83203125" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>7</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>term</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>estimate</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>std_error</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>statistic</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tweedie_GAM</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>(Intercept)</t>
+        </is>
       </c>
       <c r="C2">
-        <v>-3.2324726724116668</v>
+        <v>-3.232472672411667</v>
       </c>
       <c r="D2">
-        <v>0.87974321944430722</v>
+        <v>0.8797432194443072</v>
       </c>
       <c r="E2">
         <v>-3.674336557493981</v>
       </c>
       <c r="F2">
-        <v>2.9914892463470219E-4</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>8</v>
+        <v>0.0002991489246347022</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tweedie_GAM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>tempWarm</t>
+        </is>
       </c>
       <c r="C3">
-        <v>0.48425286288919578</v>
+        <v>0.4842528628891958</v>
       </c>
       <c r="D3">
-        <v>1.2242903812635999</v>
+        <v>1.2242903812636</v>
       </c>
       <c r="E3">
-        <v>0.39553758675241291</v>
+        <v>0.3955375867524129</v>
       </c>
       <c r="F3">
-        <v>0.69282703810001989</v>
+        <v>0.6928270381000199</v>
       </c>
     </row>
   </sheetData>
@@ -550,83 +446,103 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
-  <cols>
-    <col min="1" max="1" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="14.5" bestFit="1" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>13</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>smooth</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>edf</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>ref_df</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>stat</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>p_value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tweedie_GAM</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>s(dpi):tempCold</t>
+        </is>
       </c>
       <c r="C2">
-        <v>3.6697549948343622</v>
+        <v>3.669754994834362</v>
       </c>
       <c r="D2">
         <v>3.93051344538521</v>
       </c>
       <c r="E2">
-        <v>8.8967430098541378</v>
+        <v>8.896743009854138</v>
       </c>
       <c r="F2">
-        <v>1.680423364125438E-6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A3" t="s">
-        <v>6</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
+        <v>1.680423364125438E-06</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>Tweedie_GAM</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>s(dpi):tempWarm</t>
+        </is>
       </c>
       <c r="C3">
-        <v>3.6790606764084539</v>
+        <v>3.679060676408454</v>
       </c>
       <c r="D3">
-        <v>3.9434097460783208</v>
+        <v>3.943409746078321</v>
       </c>
       <c r="E3">
-        <v>9.2335307725538431</v>
+        <v>9.233530772553843</v>
       </c>
       <c r="F3">
-        <v>1.1901439876949029E-6</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
-      <c r="A4" t="s">
-        <v>6</v>
-      </c>
-      <c r="B4" t="s">
-        <v>15</v>
+        <v>1.190143987694903E-06</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>Tweedie_GAM</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>s(band_number)</t>
+        </is>
       </c>
       <c r="C4">
         <v>21.24583970174244</v>
@@ -635,7 +551,7 @@
         <v>26</v>
       </c>
       <c r="E4">
-        <v>5.0474702903017539</v>
+        <v>5.047470290301754</v>
       </c>
       <c r="F4">
         <v>0</v>
@@ -647,63 +563,87 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A2" t="s">
-        <v>6</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>25</v>
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>model</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>family</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>link</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>AIC</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>dev_expl_frac</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>dev_expl_pct</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>r2_adj</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>scale_est</t>
+        </is>
+      </c>
+      <c r="I1" s="1" t="inlineStr">
+        <is>
+          <t>n</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>Tweedie_GAM</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>Tweedie(p=1.01)</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>log</t>
+        </is>
       </c>
       <c r="D2">
-        <v>117.66621779275189</v>
+        <v>117.6662177927519</v>
       </c>
       <c r="E2">
-        <v>0.82812083572953343</v>
+        <v>0.8281208357295334</v>
       </c>
       <c r="F2">
         <v>82.8</v>
       </c>
       <c r="G2">
-        <v>0.75387507657034569</v>
+        <v>0.7538750765703457</v>
       </c>
       <c r="H2">
         <v>0.5038966733334026</v>
@@ -718,62 +658,78 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:F3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>27</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>28</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>29</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" s="1" customFormat="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Resid. Df</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Resid. Dev</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Df</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Deviance</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Pr(&gt;Chi)</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>comparison</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
       <c r="A2">
-        <v>221.72122622035559</v>
+        <v>221.7212262203556</v>
       </c>
       <c r="B2">
-        <v>25.986769532172371</v>
-      </c>
-      <c r="F2" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+        <v>25.98676953217237</v>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>Tweedie: null vs temp-specific</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
       <c r="A3">
         <v>216.1899997039061</v>
       </c>
       <c r="B3">
-        <v>24.966184670605092</v>
+        <v>24.96618467060509</v>
       </c>
       <c r="C3">
-        <v>5.5312265164494363</v>
+        <v>5.531226516449436</v>
       </c>
       <c r="D3">
-        <v>1.0205848615672759</v>
+        <v>1.020584861567276</v>
       </c>
       <c r="E3">
-        <v>0.88831463896217255</v>
-      </c>
-      <c r="F3" t="s">
-        <v>32</v>
+        <v>0.8883146389621726</v>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>Tweedie: null vs temp-specific</t>
+        </is>
       </c>
     </row>
   </sheetData>
